--- a/code/bios.xlsx
+++ b/code/bios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>certification</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -844,15 +844,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ph.D., Engineering, University of California, Irvine</t>
+          <t>Assessment tools for Canvas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://api.badgr.io/public/assertions/IQDR3GaGQhawDLySZRlslQ?identity__email=jdleonard%40vcu.edu</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -867,7 +871,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>certification</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,15 +881,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>M.S., Engineering, University of California, Irvine</t>
+          <t>Being an Everyday Admin for Canvas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://api.badgr.io/public/assertions/qzKptTDGQbKjC4SV09eKXw?identity__email=jdleonard%40vcu.edu</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -900,7 +908,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>certification</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -910,15 +918,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>B.S., Engineering, University of California, Irvine</t>
+          <t>Canvas Course Analytics and Data</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://api.badgr.io/public/assertions/iz714Pn7Qn2RYJOUiI9VPA?identity__email=jdleonard%40vcu.edu</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -933,25 +945,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>certification</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Professor, Department of Computer Science, VCU</t>
+          <t>Canvas Outcomes and Rubrics for Instructors</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2016-present</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://api.badgr.io/public/assertions/cRD0xj25QWqwo_IBj5nzdQ?identity__email=jdleonard%40vcu.edu</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -966,25 +982,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>education</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Executive Dean, College of Engineering, VCU</t>
+          <t>Ph.D., Engineering, University of California, Irvine</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2016-2022</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://engineering.uci.edu/dept/cee/academics/graduate/programs/transportation</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -999,25 +1019,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>education</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Associate Dean, College of Engineering, Georgia Tech</t>
+          <t>M.S., Engineering, University of California, Irvine</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2006-2016</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://engineering.uci.edu/dept/cee/academics/graduate/programs/transportation</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1032,25 +1056,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>education</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Associate Professor, School of Civil and Environmental Engineering, Georgia Tech</t>
+          <t>B.S., Engineering, University of California, Irvine</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1998-2016</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://engineering.uci.edu/dept/cee/academics/graduate/programs/transportation</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1070,20 +1098,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Associate Professor, School of Civil and Environmental Engineering, Georgia Tech</t>
+          <t>Professor, Department of Computer Science, VCU</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1993-1998</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>2016-present</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://egr.vcu.edu/departments/computer/</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1103,17 +1135,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Interim Executive Director, State Road and Tollway Authority, Georgia</t>
+          <t>Executive Dean, College of Engineering, VCU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2002-2003</t>
+          <t>2016-2022</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1131,29 +1163,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>certification</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Assessment tools for Canvas</t>
+          <t>Associate Dean, College of Engineering, Georgia Tech</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://api.badgr.io/public/assertions/IQDR3GaGQhawDLySZRlslQ?identity__email=jdleonard%40vcu.edu</t>
-        </is>
-      </c>
+          <t>2006-2016</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1168,29 +1196,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>certification</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Being an Everyday Admin for Canvas</t>
+          <t>Associate Professor, School of Civil and Environmental Engineering, Georgia Tech</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://api.badgr.io/public/assertions/qzKptTDGQbKjC4SV09eKXw?identity__email=jdleonard%40vcu.edu</t>
-        </is>
-      </c>
+          <t>1998-2016</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1205,29 +1229,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>certification</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Canvas Course Analytics and Data</t>
+          <t>Assistant Professor, School of Civil and Environmental Engineering, Georgia Tech</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://api.badgr.io/public/assertions/iz714Pn7Qn2RYJOUiI9VPA?identity__email=jdleonard%40vcu.edu</t>
-        </is>
-      </c>
+          <t>1993-1998</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1242,29 +1262,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>certification</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Canvas Outcomes and Rubrics for Instructors</t>
+          <t>Interim Executive Director, State Road and Tollway Authority, Georgia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://api.badgr.io/public/assertions/cRD0xj25QWqwo_IBj5nzdQ?identity__email=jdleonard%40vcu.edu</t>
-        </is>
-      </c>
+          <t>2002-2003</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1352,6 +1368,228 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Inho Park</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>parki2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>certification</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Foundations of User Experience (UX) Design</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>July 2022</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.coursera.org/account/accomplishments/certificate/ZQ497T6FVKG5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Inho Park</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>parki2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>certification</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Start the UX Design Process: Empathize, Define, and Ideate</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>July 2022</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.coursera.org/account/accomplishments/certificate/JSBY2GY7L4D6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Inho Park</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>parki2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>certification</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Build Wireframes and Low-Fidelity Prototypes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>July 2022</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.coursera.org/account/accomplishments/certificate/PBH232UJVEQW</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Inho Park</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>parki2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>certification</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Advance Your Skills as a User Experience Researcher</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mar 2023</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/learning/certificates/a154ad22b84cad39de714b90d6c961ba69bc5efe4ebe1729a5b63f271d75aeab?u=76209018</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Inho Park</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>parki2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>certification</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Foundations of Geographic Information Systems (GIS)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Jun 2023</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/learning/certificates/b869fdff785477fa9b0ef54b8e4d3e0d59e6d7a4c7cdd207a14c3b775607b4ef?u=76209018</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Inho Park</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>parki2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>certification</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Introduction to Business Model Canvas</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Jan 2022</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.credly.com/badges/5f648601-5ee4-4e65-a883-76b6f24133c1?source=linked_in_profile</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
